--- a/public/excel_files/masterlist-2014-12-10.xlsx
+++ b/public/excel_files/masterlist-2014-12-10.xlsx
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>Payroll Period</t>
   </si>
   <si>
-    <t>2015-01-01-2015-01-15</t>
+    <t>2014-12-10-2014-12-25</t>
   </si>
   <si>
     <t>Payroll Date</t>
@@ -123,7 +123,10 @@
     <t>6,000.00</t>
   </si>
   <si>
-    <t>5,340.75</t>
+    <t>6,001.00</t>
+  </si>
+  <si>
+    <t>5,341.75</t>
   </si>
   <si>
     <t>HR Department</t>
@@ -1834,10 +1837,10 @@
         <v>30</v>
       </c>
       <c r="H8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J8" s="9">
         <v>218</v>
@@ -1864,7 +1867,7 @@
         <v>391.25</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:1025" customHeight="1" ht="13.8">
@@ -3013,7 +3016,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -3112,16 +3115,16 @@
         <v>331</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="9">
         <v>500</v>
@@ -3133,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J7" s="9">
         <v>272.5</v>
@@ -3160,7 +3163,7 @@
         <v>752.63</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:1025" customHeight="1" ht="13.8">

--- a/public/excel_files/masterlist-2014-12-10.xlsx
+++ b/public/excel_files/masterlist-2014-12-10.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="IT Department" sheetId="1" r:id="rId4"/>
-    <sheet name="HR Department" sheetId="2" r:id="rId5"/>
+    <sheet name="Management Department" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Payroll Period</t>
   </si>
   <si>
-    <t>2015-01-01-2015-01-15</t>
+    <t>2014-12-10-2014-12-25</t>
   </si>
   <si>
     <t>Payroll Date</t>
@@ -96,52 +96,28 @@
     <t>NET</t>
   </si>
   <si>
-    <t>Juan Antonio Dela Cruz</t>
+    <t>Mark Angel Penaranda</t>
   </si>
   <si>
     <t>Web Developer</t>
   </si>
   <si>
-    <t>10,000.00</t>
-  </si>
-  <si>
-    <t>5,000.00</t>
-  </si>
-  <si>
-    <t>S0</t>
-  </si>
-  <si>
-    <t>4,645.83</t>
-  </si>
-  <si>
-    <t>Kier Pogi Boromeo</t>
-  </si>
-  <si>
-    <t>12,000.00</t>
-  </si>
-  <si>
-    <t>6,000.00</t>
-  </si>
-  <si>
-    <t>5,340.75</t>
-  </si>
-  <si>
-    <t>HR Department</t>
-  </si>
-  <si>
-    <t>Jaime Delos Santos Cruz</t>
-  </si>
-  <si>
-    <t>Human Resource Manager</t>
-  </si>
-  <si>
-    <t>15,000.00</t>
-  </si>
-  <si>
-    <t>7,500.00</t>
-  </si>
-  <si>
-    <t>6,424.88</t>
+    <t>14,000.00</t>
+  </si>
+  <si>
+    <t>7,000.00</t>
+  </si>
+  <si>
+    <t>6,931.85</t>
+  </si>
+  <si>
+    <t>Richard Angel Penaranda</t>
+  </si>
+  <si>
+    <t>Management Department</t>
+  </si>
+  <si>
+    <t>James Angel Testing</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1733,7 @@
     </row>
     <row r="7" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A7" s="8">
-        <v>330</v>
+        <v>23</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>26</v>
@@ -1772,11 +1748,9 @@
         <v>29</v>
       </c>
       <c r="F7" s="9">
-        <v>333.33</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>30</v>
-      </c>
+        <v>466.67</v>
+      </c>
+      <c r="G7" s="8"/>
       <c r="H7" s="9">
         <v>0</v>
       </c>
@@ -1784,13 +1758,13 @@
         <v>29</v>
       </c>
       <c r="J7" s="9">
-        <v>0</v>
+        <v>18.15</v>
       </c>
       <c r="K7" s="9">
         <v>0</v>
       </c>
       <c r="L7" s="9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M7" s="10">
         <v>0</v>
@@ -1805,42 +1779,40 @@
         <v>0</v>
       </c>
       <c r="Q7" s="9">
-        <v>354.17</v>
+        <v>0</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A8" s="8">
-        <v>332</v>
+        <v>24</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F8" s="9">
-        <v>400</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>30</v>
-      </c>
+        <v>466.67</v>
+      </c>
+      <c r="G8" s="8"/>
       <c r="H8" s="9">
         <v>0</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J8" s="9">
-        <v>218</v>
+        <v>18.15</v>
       </c>
       <c r="K8" s="9">
         <v>0</v>
@@ -1861,10 +1833,10 @@
         <v>0</v>
       </c>
       <c r="Q8" s="9">
-        <v>391.25</v>
+        <v>0</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:1025" customHeight="1" ht="13.8">
@@ -3013,7 +2985,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -3109,34 +3081,32 @@
     </row>
     <row r="7" spans="1:1025" customHeight="1" ht="13.8">
       <c r="A7" s="8">
-        <v>331</v>
+        <v>25</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F7" s="9">
-        <v>500</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>30</v>
-      </c>
+        <v>466.67</v>
+      </c>
+      <c r="G7" s="8"/>
       <c r="H7" s="9">
         <v>0</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J7" s="9">
-        <v>272.5</v>
+        <v>18.15</v>
       </c>
       <c r="K7" s="9">
         <v>0</v>
@@ -3157,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="Q7" s="9">
-        <v>752.63</v>
+        <v>0</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:1025" customHeight="1" ht="13.8">

--- a/public/excel_files/masterlist-2014-12-10.xlsx
+++ b/public/excel_files/masterlist-2014-12-10.xlsx
@@ -123,10 +123,10 @@
     <t>6,000.00</t>
   </si>
   <si>
-    <t>6,001.00</t>
-  </si>
-  <si>
-    <t>5,341.75</t>
+    <t>18,000.00</t>
+  </si>
+  <si>
+    <t>17,340.75</t>
   </si>
   <si>
     <t>HR Department</t>
@@ -1836,8 +1836,8 @@
       <c r="G8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="9">
-        <v>1</v>
+      <c r="H8" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>35</v>
